--- a/output/StructureDefinition-RespuestaTICTF.xlsx
+++ b/output/StructureDefinition-RespuestaTICTF.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.6.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T10:56:01-03:00</t>
+    <t>2025-06-21T18:29:32-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -276,7 +276,7 @@
     <t>RespuestaTICTF.paciente</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(http://racsel.org/TIC-TSTF/StructureDefinition/TICTFPatient)
 </t>
   </si>
   <si>
@@ -937,7 +937,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="29.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="64.9609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-RespuestaTICTF.xlsx
+++ b/output/StructureDefinition-RespuestaTICTF.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-21T18:29:32-03:00</t>
+    <t>2025-08-25T16:41:11-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -475,7 +475,7 @@
 </t>
   </si>
   <si>
-    <t>Profesional que solicitan la TICTF</t>
+    <t>Profesional que solicita la TICTF</t>
   </si>
   <si>
     <t>RespuestaTICTF.entidadSolicitante.institucionSolicitante</t>
@@ -525,16 +525,16 @@
     <t>RespuestaTICTF.entidadRespondedora.profesionalRespondedor</t>
   </si>
   <si>
-    <t>Profesional que responden la TICTF</t>
+    <t>Profesional que recibe y responde la TICTF</t>
   </si>
   <si>
     <t>RespuestaTICTF.entidadRespondedora.institucionRespondedora</t>
   </si>
   <si>
-    <t>Institución que responden la TICTF</t>
-  </si>
-  <si>
-    <t>RespuestaTICTF.entidadRespondedora.paisDestino</t>
+    <t>Institución que recibe y responde la TICTF</t>
+  </si>
+  <si>
+    <t>RespuestaTICTF.entidadRespondedora.paisReceptor</t>
   </si>
   <si>
     <t>País que recibe la TITF</t>
@@ -927,17 +927,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.51953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="58.51953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="20.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="52.484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="18.70703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="64.9609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="58.2578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -946,21 +946,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.7421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="40.30078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="58.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.6796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="36.140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="52.484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>

--- a/output/StructureDefinition-RespuestaTICTF.xlsx
+++ b/output/StructureDefinition-RespuestaTICTF.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-21T18:29:32-03:00</t>
+    <t>2025-08-25T12:04:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -475,7 +475,7 @@
 </t>
   </si>
   <si>
-    <t>Profesional que solicitan la TICTF</t>
+    <t>Profesional que solicita la TICTF</t>
   </si>
   <si>
     <t>RespuestaTICTF.entidadSolicitante.institucionSolicitante</t>
@@ -525,16 +525,16 @@
     <t>RespuestaTICTF.entidadRespondedora.profesionalRespondedor</t>
   </si>
   <si>
-    <t>Profesional que responden la TICTF</t>
+    <t>Profesional que recibe y responde la TICTF</t>
   </si>
   <si>
     <t>RespuestaTICTF.entidadRespondedora.institucionRespondedora</t>
   </si>
   <si>
-    <t>Institución que responden la TICTF</t>
-  </si>
-  <si>
-    <t>RespuestaTICTF.entidadRespondedora.paisDestino</t>
+    <t>Institución que recibe y responde la TICTF</t>
+  </si>
+  <si>
+    <t>RespuestaTICTF.entidadRespondedora.paisReceptor</t>
   </si>
   <si>
     <t>País que recibe la TITF</t>
@@ -927,17 +927,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.51953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="58.51953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="20.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.8125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="53.8125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="19.1171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.65234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65234375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.1796875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="64.9609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="58.64453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -946,21 +946,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.7421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="40.30078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="58.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.37109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.7421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.12890625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.40625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="15.85546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.73046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="36.1015625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.2734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.1171875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.56640625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.3671875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="53.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.85546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.23828125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
